--- a/parameter_files/v2/sigmas.xlsx
+++ b/parameter_files/v2/sigmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C73BE6-43EA-41C5-8859-C548E6490AE1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC45B886-5013-4477-A21B-1F6245872331}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,10 +1219,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W40" sqref="W40"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1771,6 +1771,9 @@
       <c r="T22">
         <v>1</v>
       </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
       <c r="AI22" s="5">
         <v>2</v>
       </c>
@@ -1785,6 +1788,9 @@
       <c r="B23" s="4"/>
       <c r="H23" s="5"/>
       <c r="R23" s="4"/>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
       <c r="AI23" s="5"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">

--- a/parameter_files/v2/sigmas.xlsx
+++ b/parameter_files/v2/sigmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC45B886-5013-4477-A21B-1F6245872331}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3571E1-BE13-4DC6-8B69-94C02043283B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,10 +1219,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,6 +1431,9 @@
         <v>2</v>
       </c>
       <c r="AI4" s="5"/>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
@@ -1475,6 +1478,9 @@
         <v>2</v>
       </c>
       <c r="AI6" s="5"/>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
@@ -1548,6 +1554,9 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
@@ -1635,6 +1644,9 @@
       </c>
       <c r="Z14">
         <v>2</v>
+      </c>
+      <c r="AJ14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1757,6 +1769,9 @@
         <v>2</v>
       </c>
       <c r="AI21" s="5"/>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">

--- a/parameter_files/v2/sigmas.xlsx
+++ b/parameter_files/v2/sigmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F3571E1-BE13-4DC6-8B69-94C02043283B}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{391AE8EF-E58F-49BF-ABBD-7D597E90157E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>rural communities</t>
   </si>
@@ -128,13 +128,16 @@
   </si>
   <si>
     <t>GSAs</t>
+  </si>
+  <si>
+    <t>Groundwater Management (SWRCB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,12 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -811,7 +820,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -861,6 +870,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,6 +927,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,21 +1230,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK8" sqref="AK8"/>
+      <selection pane="bottomRight" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="26" max="27" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1307,38 +1322,41 @@
       <c r="Z1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1377,9 +1395,10 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="3"/>
-    </row>
-    <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1402,12 +1421,12 @@
       <c r="U3">
         <v>0.5</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1427,15 +1446,15 @@
       <c r="U4">
         <v>2</v>
       </c>
-      <c r="AF4">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="5"/>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -1452,12 +1471,12 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="4"/>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1474,15 +1493,15 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="5"/>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
@@ -1491,9 +1510,9 @@
       <c r="I7" s="4"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
-      <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -1530,9 +1549,10 @@
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="8"/>
-    </row>
-    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="8"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
@@ -1554,11 +1574,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -1582,11 +1602,11 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>27</v>
       </c>
@@ -1596,7 +1616,7 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>30</v>
       </c>
@@ -1645,11 +1665,11 @@
       <c r="Z14">
         <v>2</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
@@ -1670,11 +1690,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="AF15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AG15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>32</v>
       </c>
@@ -1684,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
@@ -1729,9 +1749,10 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="3"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>8</v>
       </c>
@@ -1744,18 +1765,18 @@
       <c r="U19">
         <v>2</v>
       </c>
-      <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="4"/>
       <c r="H20" s="5"/>
       <c r="R20" s="4"/>
-      <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>10</v>
       </c>
@@ -1768,12 +1789,12 @@
       <c r="S21">
         <v>2</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ21" s="5"/>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>11</v>
       </c>
@@ -1789,14 +1810,14 @@
       <c r="W22">
         <v>0.5</v>
       </c>
-      <c r="AI22" s="5">
-        <v>2</v>
-      </c>
-      <c r="AJ22">
+      <c r="AJ22" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>12</v>
       </c>
@@ -1806,9 +1827,9 @@
       <c r="V23">
         <v>0.5</v>
       </c>
-      <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
@@ -1821,181 +1842,191 @@
         <v>2</v>
       </c>
       <c r="R24" s="4"/>
-      <c r="AC24">
-        <v>2</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4"/>
       <c r="H25" s="5"/>
       <c r="R25" s="4"/>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="4"/>
       <c r="H26" s="5"/>
       <c r="R26" s="4"/>
-      <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="R27" s="4"/>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>17</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="R28" s="4"/>
-      <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="B29" s="4"/>
       <c r="H29" s="5"/>
       <c r="R29" s="4"/>
-      <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4"/>
       <c r="H30" s="5"/>
       <c r="R30" s="4"/>
-      <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4"/>
       <c r="H31" s="5"/>
       <c r="R31" s="4"/>
-      <c r="AD31">
-        <v>0.5</v>
-      </c>
-      <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4"/>
       <c r="H32" s="5"/>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
       <c r="R32" s="4"/>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.5</v>
       </c>
-      <c r="AH32">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4"/>
       <c r="H33" s="5"/>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>2</v>
       </c>
       <c r="R33" s="4"/>
-      <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AE33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="R34" s="4"/>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="R35" s="4"/>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="8"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="8"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U36">
+      <c r="U37">
         <v>2</v>
       </c>
     </row>
